--- a/post_package/DynamicDependent/parallel elements.xlsx
+++ b/post_package/DynamicDependent/parallel elements.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pa2AndOr" sheetId="1" r:id="rId1"/>
     <sheet name="Shared Load" sheetId="3" r:id="rId2"/>
-    <sheet name="Andrews_Tolo" sheetId="2" r:id="rId3"/>
+    <sheet name="SteadyState" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -95,9 +95,6 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Andrews_Tolo.carms&lt;-function(x) {</t>
-  </si>
-  <si>
     <t># need to test that x is a carms object among perhaps other validations</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>bd_result&lt;-data.frame(t(tail(matP(Pa2Shared),1)))</t>
   </si>
   <si>
-    <t>ModelResult&lt;-Andrews_Tolo.carms(Pa2Shared)</t>
-  </si>
-  <si>
     <t>v&lt;-1/24</t>
   </si>
   <si>
@@ -408,6 +402,12 @@
   </si>
   <si>
     <t>(Markov Model)</t>
+  </si>
+  <si>
+    <t>ModelResult&lt;-SteadyState.carms(Pa2Shared)</t>
+  </si>
+  <si>
+    <t>SteadyState.carms&lt;-function(x) {</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -510,25 +510,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="13:23" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="13:23" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="13:23" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="13:23" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="13:34" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="W19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="13:34" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="13:34" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="13:34" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="W22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="13:34" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="W23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="13:34" x14ac:dyDescent="0.25">
@@ -1505,12 +1505,12 @@
         <v>17</v>
       </c>
       <c r="W24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="13:34" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="13:34" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
     <row r="27" spans="13:34" x14ac:dyDescent="0.25">
       <c r="M27" s="1"/>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="13:34" x14ac:dyDescent="0.25">
@@ -1529,63 +1529,63 @@
         <v>20</v>
       </c>
       <c r="W28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="13:34" x14ac:dyDescent="0.25">
       <c r="M29" t="s">
         <v>21</v>
       </c>
-      <c r="AC29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG29" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH29" s="12"/>
+      <c r="AC29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="10"/>
     </row>
     <row r="30" spans="13:34" x14ac:dyDescent="0.25">
       <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="X30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="AC30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
     </row>
     <row r="31" spans="13:34" x14ac:dyDescent="0.25">
       <c r="Y31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s">
         <v>78</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>79</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>80</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>81</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>82</v>
       </c>
-      <c r="AD31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH31" s="10"/>
+      <c r="AG31" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH31" s="18"/>
     </row>
     <row r="32" spans="13:34" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
@@ -1601,7 +1601,7 @@
         <v>-1</v>
       </c>
       <c r="AA32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB32">
         <v>10</v>
@@ -1613,10 +1613,10 @@
         <v>2.8740200000000001E-3</v>
       </c>
       <c r="AG32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="13:34" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="AA33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB33">
         <v>11</v>
@@ -1644,10 +1644,10 @@
       <c r="AD33" s="9">
         <v>1.1486900000000001E-6</v>
       </c>
-      <c r="AE33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF33" s="10"/>
+      <c r="AE33" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF33" s="18"/>
       <c r="AG33" s="6">
         <f>P45</f>
         <v>7.1793150000000001E-8</v>
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="AA34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB34">
         <v>1</v>
@@ -1703,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="AA35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -1714,10 +1714,10 @@
       <c r="AD35" s="4">
         <v>4.7976969999999997E-4</v>
       </c>
-      <c r="AG35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH35" s="11"/>
+      <c r="AG35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH35" s="19"/>
     </row>
     <row r="36" spans="13:34" x14ac:dyDescent="0.25">
       <c r="N36">
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB36">
         <v>10</v>
@@ -1747,10 +1747,10 @@
       <c r="AD36" s="8">
         <v>2.872875E-3</v>
       </c>
-      <c r="AE36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF36" s="11"/>
+      <c r="AE36" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF36" s="19"/>
       <c r="AG36" s="6">
         <f>SUM(P43:P45)</f>
         <v>6.9942483150000004E-5</v>
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="AA37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="AA38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -1814,23 +1814,23 @@
     </row>
     <row r="39" spans="13:34" x14ac:dyDescent="0.25">
       <c r="M39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="13:34" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="13:34" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" t="s">
         <v>60</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>61</v>
-      </c>
-      <c r="P41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="13:34" x14ac:dyDescent="0.25">
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q4:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W5" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+    <sheetView topLeftCell="N21" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,27 +1937,27 @@
     </row>
     <row r="6" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="17:17" x14ac:dyDescent="0.25">
@@ -1965,17 +1965,17 @@
     </row>
     <row r="12" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="17:17" x14ac:dyDescent="0.25">
@@ -1983,47 +1983,47 @@
     </row>
     <row r="16" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="17:25" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="17:25" x14ac:dyDescent="0.25">
@@ -2034,15 +2034,15 @@
         <v>20</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="17:25" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y29">
         <f>1/24</f>
@@ -2066,11 +2066,11 @@
       <c r="S31" t="s">
         <v>23</v>
       </c>
-      <c r="V31" s="14" t="s">
-        <v>122</v>
+      <c r="V31" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="17:25" x14ac:dyDescent="0.25">
@@ -2114,14 +2114,14 @@
       <c r="X34">
         <v>4.2811640000000001E-4</v>
       </c>
-      <c r="AE34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF34" s="12"/>
-      <c r="AH34" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI34" s="12"/>
+      <c r="AE34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF34" s="10"/>
+      <c r="AH34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI34" s="10"/>
     </row>
     <row r="35" spans="17:36" x14ac:dyDescent="0.25">
       <c r="R35">
@@ -2130,56 +2130,56 @@
       <c r="S35">
         <v>2.0549589999999999E-4</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="16">
         <v>1.7098E-3</v>
       </c>
       <c r="X35">
         <v>2.0549589999999999E-4</v>
       </c>
-      <c r="AE35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF35" s="12"/>
-      <c r="AH35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI35" s="12"/>
+      <c r="AE35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF35" s="10"/>
+      <c r="AH35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI35" s="10"/>
     </row>
     <row r="36" spans="17:36" x14ac:dyDescent="0.25">
-      <c r="AE36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF36" s="10"/>
-      <c r="AH36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI36" s="10"/>
+      <c r="AE36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF36" s="18"/>
+      <c r="AH36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AE37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH37" t="s">
         <v>94</v>
       </c>
-      <c r="AH37" t="s">
-        <v>95</v>
-      </c>
       <c r="AI37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="17:36" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD38" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="AC38" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD38" s="18"/>
       <c r="AE38" s="9">
         <v>7.1793150000000001E-8</v>
       </c>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="39" spans="17:36" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" t="s">
         <v>60</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>61</v>
-      </c>
-      <c r="T39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="17:36" x14ac:dyDescent="0.25">
@@ -2216,10 +2216,10 @@
       <c r="S40">
         <v>0.99893827130000001</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="11">
         <v>3.995753E-5</v>
       </c>
-      <c r="V40" s="17">
+      <c r="V40" s="15">
         <f>(V33+V34)*$Y$29 +V35*0.5*$Y$29</f>
         <v>7.1243333333333329E-5</v>
       </c>
@@ -2227,7 +2227,7 @@
         <f>V33*$Y$29</f>
         <v>1.781125E-5</v>
       </c>
-      <c r="X40" s="15">
+      <c r="X40" s="13">
         <f>(X33+X34)*$Y$29 +X35*0.5*$Y$29</f>
         <v>3.9957531249999995E-5</v>
       </c>
@@ -2236,14 +2236,14 @@
         <v>1.7838183333333331E-5</v>
       </c>
       <c r="Z40" s="6"/>
-      <c r="AE40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF40" s="11"/>
-      <c r="AH40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI40" s="11"/>
+      <c r="AE40" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF40" s="19"/>
+      <c r="AH40" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI40" s="19"/>
     </row>
     <row r="41" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q41">
@@ -2266,10 +2266,10 @@
         <f>X34*$Y$29</f>
         <v>1.7838183333333331E-5</v>
       </c>
-      <c r="AC41" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD41" s="11"/>
+      <c r="AC41" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD41" s="19"/>
       <c r="AE41" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>1.0617287000000001E-3</v>
       </c>
       <c r="AJ41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="17:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,11 +2301,11 @@
       <c r="T42" s="6">
         <v>1.997877E-5</v>
       </c>
-      <c r="W42" s="19">
+      <c r="W42" s="17">
         <f>V35*0.5*$Y$29</f>
         <v>3.562083333333333E-5</v>
       </c>
-      <c r="Y42" s="16">
+      <c r="Y42" s="14">
         <f>X35*0.5*$Y$29</f>
         <v>4.2811645833333326E-6</v>
       </c>
@@ -2350,203 +2350,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
